--- a/data/grammar_data0001.xlsx
+++ b/data/grammar_data0001.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yurit\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yurit\Downloads\Rephraseプロジェクト進捗ファイル\Rephraseプロジェクト進捗ファイル20250529\完全トレーニングUI完成フェーズ３\project-root\Rephrase-Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01EE86E-6BFE-4C86-A28A-DC6466146F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2023797C-5FE0-4D03-A1D8-C40D7CE86283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="1390" windowWidth="35450" windowHeight="19100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="1390" windowWidth="37290" windowHeight="20210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="増殖①" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="368">
   <si>
     <t>文法項目番号</t>
   </si>
@@ -4006,6 +4006,21 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>5001</v>
+      </c>
+      <c r="B88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" t="s">
+        <v>55</v>
+      </c>
+      <c r="G88" t="s">
+        <v>72</v>
+      </c>
       <c r="I88" t="s">
         <v>289</v>
       </c>
@@ -4014,6 +4029,21 @@
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>5001</v>
+      </c>
+      <c r="B89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" t="s">
+        <v>55</v>
+      </c>
+      <c r="G89" t="s">
+        <v>72</v>
+      </c>
       <c r="I89" t="s">
         <v>291</v>
       </c>
@@ -4025,6 +4055,21 @@
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>5001</v>
+      </c>
+      <c r="B90" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" t="s">
+        <v>55</v>
+      </c>
+      <c r="G90" t="s">
+        <v>72</v>
+      </c>
       <c r="I90" t="s">
         <v>327</v>
       </c>

--- a/data/grammar_data0001.xlsx
+++ b/data/grammar_data0001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yurit\Downloads\Rephraseプロジェクト進捗ファイル\Rephraseプロジェクト進捗ファイル20250529\完全トレーニングUI完成フェーズ３\project-root\Rephrase-Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2023797C-5FE0-4D03-A1D8-C40D7CE86283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4A6A31-C400-4160-8AE5-85815EDD0E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1110" yWindow="1390" windowWidth="37290" windowHeight="20210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="369">
   <si>
     <t>文法項目番号</t>
   </si>
@@ -1509,6 +1509,10 @@
     <rPh sb="3" eb="5">
       <t>カコ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>O1</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1901,7 +1905,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4885,13 +4891,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4905,16 +4922,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5001</v>
       </c>
@@ -4934,7 +4957,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5001</v>
       </c>
@@ -4951,7 +4974,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5001</v>
       </c>
@@ -4968,7 +4991,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5001</v>
       </c>
@@ -4985,7 +5008,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5001</v>
       </c>
@@ -5002,7 +5025,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5001</v>
       </c>
@@ -5019,7 +5042,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5001</v>
       </c>
@@ -5036,7 +5059,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5001</v>
       </c>
@@ -5053,7 +5076,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5001</v>
       </c>
@@ -5070,7 +5093,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5001</v>
       </c>
@@ -5087,7 +5110,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5001</v>
       </c>
@@ -5104,7 +5127,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5001</v>
       </c>
@@ -5121,7 +5144,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5001</v>
       </c>
@@ -5138,7 +5161,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5001</v>
       </c>
@@ -5155,7 +5178,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>5001</v>
       </c>
@@ -5741,13 +5764,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5761,16 +5797,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5001</v>
       </c>
@@ -5790,7 +5832,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5001</v>
       </c>
@@ -5807,7 +5849,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5001</v>
       </c>
@@ -5824,7 +5866,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5001</v>
       </c>
@@ -5841,7 +5883,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5001</v>
       </c>
@@ -5858,7 +5900,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5001</v>
       </c>
@@ -5875,7 +5917,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5001</v>
       </c>
@@ -5892,7 +5934,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5001</v>
       </c>
@@ -5909,7 +5951,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5001</v>
       </c>
@@ -5926,7 +5968,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5001</v>
       </c>
@@ -5943,7 +5985,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5001</v>
       </c>
@@ -5960,7 +6002,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5001</v>
       </c>
@@ -5977,7 +6019,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5001</v>
       </c>
@@ -5994,7 +6036,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5001</v>
       </c>
@@ -6011,7 +6053,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>5001</v>
       </c>
@@ -6393,13 +6435,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6413,16 +6468,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5001</v>
       </c>
@@ -6442,7 +6503,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5001</v>
       </c>
@@ -6459,7 +6520,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5001</v>
       </c>
@@ -6476,7 +6537,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5001</v>
       </c>
@@ -6493,7 +6554,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5001</v>
       </c>
@@ -6510,7 +6571,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5001</v>
       </c>
@@ -6527,7 +6588,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5001</v>
       </c>
@@ -6544,7 +6605,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5001</v>
       </c>
@@ -6561,7 +6622,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5001</v>
       </c>
@@ -6569,7 +6630,7 @@
         <v>161</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>368</v>
       </c>
       <c r="D10" t="s">
         <v>172</v>
@@ -6578,7 +6639,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5001</v>
       </c>
@@ -6586,7 +6647,7 @@
         <v>161</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>368</v>
       </c>
       <c r="D11" t="s">
         <v>173</v>
@@ -6595,7 +6656,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5001</v>
       </c>
@@ -6612,7 +6673,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5001</v>
       </c>
@@ -6629,7 +6690,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5001</v>
       </c>
@@ -6646,7 +6707,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5001</v>
       </c>
@@ -6663,7 +6724,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>5001</v>
       </c>
@@ -6807,7 +6868,7 @@
         <v>162</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>368</v>
       </c>
       <c r="D24" t="s">
         <v>184</v>
@@ -6824,7 +6885,7 @@
         <v>162</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>368</v>
       </c>
       <c r="D25" t="s">
         <v>185</v>
@@ -7045,7 +7106,7 @@
         <v>163</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>368</v>
       </c>
       <c r="D38" t="s">
         <v>197</v>
@@ -7062,7 +7123,7 @@
         <v>163</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>368</v>
       </c>
       <c r="D39" t="s">
         <v>198</v>

--- a/data/grammar_data0001.xlsx
+++ b/data/grammar_data0001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yurit\Downloads\Rephraseプロジェクト進捗ファイル\Rephraseプロジェクト進捗ファイル20250529\完全トレーニングUI完成フェーズ３\project-root\Rephrase-Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631487A0-2775-48C8-A5EA-AB2FFFE91083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B8827B-4B52-437C-9502-B35E1B5E93AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="1390" windowWidth="37290" windowHeight="20210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1010" yWindow="1320" windowWidth="37290" windowHeight="20210" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="増殖①" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="371">
   <si>
     <t>文法項目番号</t>
   </si>
@@ -247,9 +247,6 @@
     <t>although the timing was not ideal</t>
   </si>
   <si>
-    <t>the revised study group that she was supposed to join</t>
-  </si>
-  <si>
     <t>the student who had been absent for several days</t>
   </si>
   <si>
@@ -262,9 +259,6 @@
     <t>an overview of the rules everyone was expected to follow</t>
   </si>
   <si>
-    <t>complete the review in time for the next lesson</t>
-  </si>
-  <si>
     <t>because he believed it would help her catch up</t>
   </si>
   <si>
@@ -295,9 +289,6 @@
     <t>despite having no prior experience</t>
   </si>
   <si>
-    <t>the training session that had confused most attendees</t>
-  </si>
-  <si>
     <t>the intern who appeared lost during the discussion</t>
   </si>
   <si>
@@ -310,9 +301,6 @@
     <t>a step-by-step guide she had drafted that morning</t>
   </si>
   <si>
-    <t>identify the critical flaw in the plan</t>
-  </si>
-  <si>
     <t>because the team was struggling to move forward</t>
   </si>
   <si>
@@ -331,18 +319,12 @@
     <t>the representative who had avoided conflict</t>
   </si>
   <si>
-    <t>hesitated but managed to</t>
-  </si>
-  <si>
     <t>even though emotions were running high in the room</t>
   </si>
   <si>
     <t>although she feared misinterpretation</t>
   </si>
   <si>
-    <t>the scheduling error that disrupted the entire agenda</t>
-  </si>
-  <si>
     <t>the committee that had submitted the flawed proposal</t>
   </si>
   <si>
@@ -353,9 +335,6 @@
   </si>
   <si>
     <t>what consequences would follow if no action was taken</t>
-  </si>
-  <si>
-    <t>respond with transparency and accuracy</t>
   </si>
   <si>
     <t>so that future errors could be avoided</t>
@@ -1553,20 +1532,29 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>例文④のポイントは〇〇だ。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>give</t>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>given</t>
   </si>
   <si>
     <t>show</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>tell</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>例文④のポイントは〇〇だ。</t>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>助動詞（完了）</t>
+  </si>
+  <si>
+    <t>〜することを選んだ</t>
+  </si>
+  <si>
+    <t>phrase</t>
   </si>
 </sst>
 </file>
@@ -1643,7 +1631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1652,9 +1640,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1961,9 +1946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1989,10 +1972,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -2010,22 +1993,22 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>368</v>
+        <v>211</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -2033,13 +2016,13 @@
         <v>5001</v>
       </c>
       <c r="B2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D2" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -2054,16 +2037,16 @@
         <v>65</v>
       </c>
       <c r="I2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="J2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="N2" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="O2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -2071,13 +2054,13 @@
         <v>5001</v>
       </c>
       <c r="B3" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C3" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D3" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -2086,10 +2069,10 @@
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="J3" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -2097,13 +2080,13 @@
         <v>5001</v>
       </c>
       <c r="B4" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C4" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D4" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -2112,10 +2095,10 @@
         <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="J4" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -2123,13 +2106,13 @@
         <v>5001</v>
       </c>
       <c r="B5" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C5" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D5" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -2138,13 +2121,13 @@
         <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K5" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="L5" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -2152,13 +2135,13 @@
         <v>5001</v>
       </c>
       <c r="B6" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C6" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D6" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -2167,16 +2150,16 @@
         <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K6" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="L6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="M6" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -2184,13 +2167,13 @@
         <v>5001</v>
       </c>
       <c r="B7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -2199,13 +2182,13 @@
         <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="L7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -2213,13 +2196,13 @@
         <v>5001</v>
       </c>
       <c r="B8" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C8" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D8" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -2228,10 +2211,10 @@
         <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="J8" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -2239,25 +2222,25 @@
         <v>5001</v>
       </c>
       <c r="B9" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C9" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D9" t="s">
+        <v>346</v>
+      </c>
+      <c r="E9" t="s">
         <v>353</v>
-      </c>
-      <c r="E9" t="s">
-        <v>360</v>
       </c>
       <c r="F9" t="s">
         <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="J9" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -2265,13 +2248,13 @@
         <v>5001</v>
       </c>
       <c r="B10" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C10" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D10" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -2283,7 +2266,7 @@
         <v>66</v>
       </c>
       <c r="J10" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -2291,13 +2274,13 @@
         <v>5001</v>
       </c>
       <c r="B11" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C11" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D11" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -2309,13 +2292,13 @@
         <v>67</v>
       </c>
       <c r="K11" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="L11" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="M11" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -2323,13 +2306,13 @@
         <v>5001</v>
       </c>
       <c r="B12" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C12" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D12" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -2341,13 +2324,13 @@
         <v>67</v>
       </c>
       <c r="K12" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="L12" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M12" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -2355,13 +2338,13 @@
         <v>5001</v>
       </c>
       <c r="B13" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C13" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D13" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -2373,13 +2356,13 @@
         <v>67</v>
       </c>
       <c r="K13" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="L13" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="M13" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -2387,13 +2370,13 @@
         <v>5001</v>
       </c>
       <c r="B14" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C14" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D14" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -2405,10 +2388,10 @@
         <v>67</v>
       </c>
       <c r="K14" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="L14" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -2416,13 +2399,13 @@
         <v>5001</v>
       </c>
       <c r="B15" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C15" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D15" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -2434,10 +2417,10 @@
         <v>67</v>
       </c>
       <c r="K15" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="L15" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -2445,13 +2428,13 @@
         <v>5001</v>
       </c>
       <c r="B16" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C16" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D16" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -2463,13 +2446,13 @@
         <v>67</v>
       </c>
       <c r="K16" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="L16" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="M16" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -2477,13 +2460,13 @@
         <v>5001</v>
       </c>
       <c r="B17" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C17" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D17" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -2495,13 +2478,13 @@
         <v>67</v>
       </c>
       <c r="K17" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="L17" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="M17" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -2509,13 +2492,13 @@
         <v>5001</v>
       </c>
       <c r="B18" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C18" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D18" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -2527,13 +2510,13 @@
         <v>67</v>
       </c>
       <c r="K18" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="L18" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="M18" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -2541,13 +2524,13 @@
         <v>5001</v>
       </c>
       <c r="B19" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C19" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D19" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
@@ -2556,16 +2539,16 @@
         <v>26</v>
       </c>
       <c r="I19" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K19" t="s">
+        <v>208</v>
+      </c>
+      <c r="L19" t="s">
         <v>215</v>
       </c>
-      <c r="L19" t="s">
-        <v>222</v>
-      </c>
       <c r="M19" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -2573,13 +2556,13 @@
         <v>5001</v>
       </c>
       <c r="B20" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C20" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D20" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -2588,13 +2571,13 @@
         <v>26</v>
       </c>
       <c r="I20" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K20" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="L20" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -2602,13 +2585,13 @@
         <v>5001</v>
       </c>
       <c r="B21" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C21" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D21" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
@@ -2617,16 +2600,16 @@
         <v>26</v>
       </c>
       <c r="I21" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K21" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="L21" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="M21" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -2634,13 +2617,13 @@
         <v>5001</v>
       </c>
       <c r="B22" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C22" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D22" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
@@ -2649,13 +2632,13 @@
         <v>26</v>
       </c>
       <c r="I22" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K22" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -2663,13 +2646,13 @@
         <v>5001</v>
       </c>
       <c r="B23" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C23" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D23" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E23" t="s">
         <v>12</v>
@@ -2681,10 +2664,10 @@
         <v>67</v>
       </c>
       <c r="K23" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="L23" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -2692,13 +2675,13 @@
         <v>5001</v>
       </c>
       <c r="B24" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C24" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D24" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E24" t="s">
         <v>12</v>
@@ -2710,13 +2693,13 @@
         <v>67</v>
       </c>
       <c r="K24" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="L24" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="M24" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -2724,13 +2707,13 @@
         <v>5001</v>
       </c>
       <c r="B25" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C25" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D25" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
@@ -2742,13 +2725,13 @@
         <v>67</v>
       </c>
       <c r="K25" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="L25" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="M25" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -2756,13 +2739,13 @@
         <v>5001</v>
       </c>
       <c r="B26" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C26" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D26" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E26" t="s">
         <v>12</v>
@@ -2774,13 +2757,13 @@
         <v>67</v>
       </c>
       <c r="K26" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="L26" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="M26" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -2788,13 +2771,13 @@
         <v>5001</v>
       </c>
       <c r="B27" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C27" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D27" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E27" t="s">
         <v>12</v>
@@ -2803,16 +2786,16 @@
         <v>28</v>
       </c>
       <c r="I27" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K27" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="L27" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="M27" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -2820,13 +2803,13 @@
         <v>5001</v>
       </c>
       <c r="B28" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C28" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D28" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E28" t="s">
         <v>12</v>
@@ -2835,13 +2818,13 @@
         <v>28</v>
       </c>
       <c r="I28" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K28" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="L28" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -2849,13 +2832,13 @@
         <v>5001</v>
       </c>
       <c r="B29" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C29" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D29" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E29" t="s">
         <v>12</v>
@@ -2864,16 +2847,16 @@
         <v>28</v>
       </c>
       <c r="I29" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K29" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="L29" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="M29" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -2881,13 +2864,13 @@
         <v>5001</v>
       </c>
       <c r="B30" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C30" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D30" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E30" t="s">
         <v>12</v>
@@ -2896,16 +2879,16 @@
         <v>28</v>
       </c>
       <c r="I30" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K30" t="s">
+        <v>224</v>
+      </c>
+      <c r="L30" t="s">
         <v>231</v>
       </c>
-      <c r="L30" t="s">
-        <v>238</v>
-      </c>
       <c r="M30" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -2913,13 +2896,13 @@
         <v>5001</v>
       </c>
       <c r="B31" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C31" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D31" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E31" t="s">
         <v>12</v>
@@ -2931,10 +2914,10 @@
         <v>67</v>
       </c>
       <c r="K31" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="L31" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -2942,13 +2925,13 @@
         <v>5001</v>
       </c>
       <c r="B32" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C32" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D32" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E32" t="s">
         <v>12</v>
@@ -2960,13 +2943,13 @@
         <v>67</v>
       </c>
       <c r="K32" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="L32" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="M32" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -2974,13 +2957,13 @@
         <v>5001</v>
       </c>
       <c r="B33" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C33" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D33" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E33" t="s">
         <v>12</v>
@@ -2992,13 +2975,13 @@
         <v>67</v>
       </c>
       <c r="K33" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="L33" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="M33" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -3006,13 +2989,13 @@
         <v>5001</v>
       </c>
       <c r="B34" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C34" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D34" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E34" t="s">
         <v>15</v>
@@ -3024,13 +3007,13 @@
         <v>67</v>
       </c>
       <c r="K34" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="L34" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="M34" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -3038,13 +3021,13 @@
         <v>5001</v>
       </c>
       <c r="B35" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C35" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D35" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E35" t="s">
         <v>15</v>
@@ -3056,10 +3039,10 @@
         <v>67</v>
       </c>
       <c r="K35" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="L35" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -3067,13 +3050,13 @@
         <v>5001</v>
       </c>
       <c r="B36" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C36" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D36" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E36" t="s">
         <v>15</v>
@@ -3085,13 +3068,13 @@
         <v>67</v>
       </c>
       <c r="K36" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="L36" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="M36" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -3099,13 +3082,13 @@
         <v>5001</v>
       </c>
       <c r="B37" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C37" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D37" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E37" t="s">
         <v>15</v>
@@ -3117,13 +3100,13 @@
         <v>67</v>
       </c>
       <c r="K37" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="L37" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="M37" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -3131,13 +3114,13 @@
         <v>5001</v>
       </c>
       <c r="B38" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C38" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D38" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E38" t="s">
         <v>15</v>
@@ -3146,16 +3129,16 @@
         <v>31</v>
       </c>
       <c r="I38" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K38" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="L38" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="M38" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
@@ -3163,13 +3146,13 @@
         <v>5001</v>
       </c>
       <c r="B39" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C39" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D39" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E39" t="s">
         <v>15</v>
@@ -3178,13 +3161,13 @@
         <v>31</v>
       </c>
       <c r="I39" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K39" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="L39" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -3192,13 +3175,13 @@
         <v>5001</v>
       </c>
       <c r="B40" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C40" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D40" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E40" t="s">
         <v>15</v>
@@ -3207,16 +3190,16 @@
         <v>31</v>
       </c>
       <c r="I40" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K40" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="L40" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="M40" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
@@ -3224,13 +3207,13 @@
         <v>5001</v>
       </c>
       <c r="B41" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C41" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D41" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E41" t="s">
         <v>15</v>
@@ -3239,16 +3222,16 @@
         <v>31</v>
       </c>
       <c r="I41" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K41" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="L41" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="M41" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
@@ -3256,13 +3239,13 @@
         <v>5001</v>
       </c>
       <c r="B42" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C42" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D42" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E42" t="s">
         <v>15</v>
@@ -3271,10 +3254,10 @@
         <v>32</v>
       </c>
       <c r="I42" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="J42" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
@@ -3282,13 +3265,13 @@
         <v>5001</v>
       </c>
       <c r="B43" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C43" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D43" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E43" t="s">
         <v>7</v>
@@ -3297,10 +3280,10 @@
         <v>33</v>
       </c>
       <c r="I43" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="J43" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
@@ -3308,25 +3291,25 @@
         <v>5001</v>
       </c>
       <c r="B44" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C44" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D44" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E44" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F44" t="s">
         <v>34</v>
       </c>
       <c r="I44" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="J44" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
@@ -3334,13 +3317,13 @@
         <v>5001</v>
       </c>
       <c r="B45" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C45" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D45" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E45" t="s">
         <v>7</v>
@@ -3349,10 +3332,10 @@
         <v>35</v>
       </c>
       <c r="I45" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="J45" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
@@ -3360,13 +3343,13 @@
         <v>5001</v>
       </c>
       <c r="B46" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C46" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D46" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E46" t="s">
         <v>8</v>
@@ -3375,10 +3358,10 @@
         <v>36</v>
       </c>
       <c r="I46" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="J46" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
@@ -3386,13 +3369,13 @@
         <v>5001</v>
       </c>
       <c r="B47" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C47" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D47" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E47" t="s">
         <v>8</v>
@@ -3401,10 +3384,10 @@
         <v>37</v>
       </c>
       <c r="I47" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="J47" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
@@ -3412,13 +3395,13 @@
         <v>5001</v>
       </c>
       <c r="B48" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C48" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D48" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E48" t="s">
         <v>8</v>
@@ -3427,10 +3410,10 @@
         <v>38</v>
       </c>
       <c r="I48" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="J48" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
@@ -3438,13 +3421,13 @@
         <v>5001</v>
       </c>
       <c r="B49" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C49" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D49" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E49" t="s">
         <v>9</v>
@@ -3453,10 +3436,10 @@
         <v>39</v>
       </c>
       <c r="I49" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="J49" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
@@ -3464,13 +3447,13 @@
         <v>5001</v>
       </c>
       <c r="B50" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C50" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D50" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E50" t="s">
         <v>10</v>
@@ -3479,16 +3462,16 @@
         <v>40</v>
       </c>
       <c r="I50" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K50" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="L50" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="M50" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
@@ -3496,13 +3479,13 @@
         <v>5001</v>
       </c>
       <c r="B51" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C51" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D51" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E51" t="s">
         <v>10</v>
@@ -3511,16 +3494,16 @@
         <v>40</v>
       </c>
       <c r="I51" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K51" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="L51" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M51" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
@@ -3528,13 +3511,13 @@
         <v>5001</v>
       </c>
       <c r="B52" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C52" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D52" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E52" t="s">
         <v>10</v>
@@ -3543,16 +3526,16 @@
         <v>40</v>
       </c>
       <c r="I52" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K52" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="L52" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="M52" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
@@ -3560,13 +3543,13 @@
         <v>5001</v>
       </c>
       <c r="B53" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C53" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D53" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E53" t="s">
         <v>10</v>
@@ -3575,16 +3558,16 @@
         <v>40</v>
       </c>
       <c r="I53" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K53" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="L53" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="M53" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
@@ -3592,13 +3575,13 @@
         <v>5001</v>
       </c>
       <c r="B54" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C54" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D54" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E54" t="s">
         <v>10</v>
@@ -3607,13 +3590,13 @@
         <v>40</v>
       </c>
       <c r="I54" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K54" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="L54" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
@@ -3621,13 +3604,13 @@
         <v>5001</v>
       </c>
       <c r="B55" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C55" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D55" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E55" t="s">
         <v>10</v>
@@ -3639,10 +3622,10 @@
         <v>67</v>
       </c>
       <c r="K55" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="L55" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
@@ -3650,13 +3633,13 @@
         <v>5001</v>
       </c>
       <c r="B56" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C56" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D56" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
@@ -3668,10 +3651,10 @@
         <v>67</v>
       </c>
       <c r="K56" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="L56" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
@@ -3679,13 +3662,13 @@
         <v>5001</v>
       </c>
       <c r="B57" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C57" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D57" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
@@ -3697,13 +3680,13 @@
         <v>67</v>
       </c>
       <c r="K57" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="L57" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="M57" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
@@ -3711,13 +3694,13 @@
         <v>5001</v>
       </c>
       <c r="B58" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C58" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D58" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
@@ -3729,13 +3712,13 @@
         <v>67</v>
       </c>
       <c r="K58" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="L58" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="M58" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
@@ -3743,13 +3726,13 @@
         <v>5001</v>
       </c>
       <c r="B59" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C59" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D59" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E59" t="s">
         <v>10</v>
@@ -3758,16 +3741,16 @@
         <v>42</v>
       </c>
       <c r="I59" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K59" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="L59" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="M59" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
@@ -3775,13 +3758,13 @@
         <v>5001</v>
       </c>
       <c r="B60" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C60" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D60" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E60" t="s">
         <v>10</v>
@@ -3790,16 +3773,16 @@
         <v>42</v>
       </c>
       <c r="I60" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K60" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="L60" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="M60" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
@@ -3807,13 +3790,13 @@
         <v>5001</v>
       </c>
       <c r="B61" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C61" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D61" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E61" t="s">
         <v>10</v>
@@ -3822,16 +3805,16 @@
         <v>42</v>
       </c>
       <c r="I61" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K61" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="L61" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="M61" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
@@ -3839,13 +3822,13 @@
         <v>5001</v>
       </c>
       <c r="B62" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C62" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D62" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E62" t="s">
         <v>12</v>
@@ -3857,10 +3840,10 @@
         <v>67</v>
       </c>
       <c r="K62" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="L62" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
@@ -3868,13 +3851,13 @@
         <v>5001</v>
       </c>
       <c r="B63" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C63" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D63" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E63" t="s">
         <v>12</v>
@@ -3886,13 +3869,13 @@
         <v>67</v>
       </c>
       <c r="K63" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="L63" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="M63" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
@@ -3900,13 +3883,13 @@
         <v>5001</v>
       </c>
       <c r="B64" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C64" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D64" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E64" t="s">
         <v>12</v>
@@ -3918,13 +3901,13 @@
         <v>67</v>
       </c>
       <c r="K64" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="L64" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M64" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
@@ -3932,13 +3915,13 @@
         <v>5001</v>
       </c>
       <c r="B65" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C65" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D65" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E65" t="s">
         <v>12</v>
@@ -3950,10 +3933,10 @@
         <v>67</v>
       </c>
       <c r="K65" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L65" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
@@ -3961,13 +3944,13 @@
         <v>5001</v>
       </c>
       <c r="B66" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C66" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D66" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E66" t="s">
         <v>12</v>
@@ -3979,13 +3962,13 @@
         <v>67</v>
       </c>
       <c r="K66" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="L66" t="s">
         <v>22</v>
       </c>
       <c r="M66" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
@@ -3993,13 +3976,13 @@
         <v>5001</v>
       </c>
       <c r="B67" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C67" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D67" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E67" t="s">
         <v>12</v>
@@ -4011,13 +3994,13 @@
         <v>67</v>
       </c>
       <c r="K67" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="L67" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="M67" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
@@ -4025,13 +4008,13 @@
         <v>5001</v>
       </c>
       <c r="B68" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C68" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D68" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E68" t="s">
         <v>12</v>
@@ -4043,10 +4026,10 @@
         <v>67</v>
       </c>
       <c r="K68" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="L68" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
@@ -4054,13 +4037,13 @@
         <v>5001</v>
       </c>
       <c r="B69" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C69" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D69" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E69" t="s">
         <v>12</v>
@@ -4072,13 +4055,13 @@
         <v>67</v>
       </c>
       <c r="K69" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L69" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="M69" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
@@ -4086,13 +4069,13 @@
         <v>5001</v>
       </c>
       <c r="B70" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C70" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D70" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E70" t="s">
         <v>12</v>
@@ -4104,13 +4087,13 @@
         <v>67</v>
       </c>
       <c r="K70" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="L70" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="M70" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
@@ -4118,13 +4101,13 @@
         <v>5001</v>
       </c>
       <c r="B71" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C71" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D71" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E71" t="s">
         <v>12</v>
@@ -4136,10 +4119,10 @@
         <v>67</v>
       </c>
       <c r="K71" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="L71" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
@@ -4147,13 +4130,13 @@
         <v>5001</v>
       </c>
       <c r="B72" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C72" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D72" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E72" t="s">
         <v>15</v>
@@ -4165,13 +4148,13 @@
         <v>67</v>
       </c>
       <c r="K72" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="L72" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="M72" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
@@ -4179,13 +4162,13 @@
         <v>5001</v>
       </c>
       <c r="B73" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C73" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D73" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E73" t="s">
         <v>15</v>
@@ -4197,10 +4180,10 @@
         <v>67</v>
       </c>
       <c r="K73" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="L73" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
@@ -4208,13 +4191,13 @@
         <v>5001</v>
       </c>
       <c r="B74" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C74" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D74" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E74" t="s">
         <v>15</v>
@@ -4226,10 +4209,10 @@
         <v>67</v>
       </c>
       <c r="K74" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="L74" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
@@ -4237,13 +4220,13 @@
         <v>5001</v>
       </c>
       <c r="B75" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C75" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D75" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E75" t="s">
         <v>15</v>
@@ -4255,13 +4238,13 @@
         <v>67</v>
       </c>
       <c r="K75" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="L75" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="M75" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
@@ -4269,13 +4252,13 @@
         <v>5001</v>
       </c>
       <c r="B76" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C76" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D76" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E76" t="s">
         <v>15</v>
@@ -4284,16 +4267,16 @@
         <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K76" t="s">
+        <v>287</v>
+      </c>
+      <c r="L76" t="s">
         <v>294</v>
       </c>
-      <c r="L76" t="s">
-        <v>301</v>
-      </c>
       <c r="M76" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
@@ -4301,13 +4284,13 @@
         <v>5001</v>
       </c>
       <c r="B77" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C77" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D77" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E77" t="s">
         <v>15</v>
@@ -4316,13 +4299,13 @@
         <v>47</v>
       </c>
       <c r="I77" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K77" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="L77" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
@@ -4330,13 +4313,13 @@
         <v>5001</v>
       </c>
       <c r="B78" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C78" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D78" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E78" t="s">
         <v>15</v>
@@ -4345,16 +4328,16 @@
         <v>47</v>
       </c>
       <c r="I78" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K78" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="L78" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="M78" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
@@ -4362,13 +4345,13 @@
         <v>5001</v>
       </c>
       <c r="B79" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C79" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D79" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E79" t="s">
         <v>15</v>
@@ -4377,16 +4360,16 @@
         <v>47</v>
       </c>
       <c r="I79" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K79" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="L79" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="M79" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
@@ -4394,13 +4377,13 @@
         <v>5001</v>
       </c>
       <c r="B80" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C80" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D80" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E80" t="s">
         <v>15</v>
@@ -4409,10 +4392,10 @@
         <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="J80" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
@@ -4420,13 +4403,13 @@
         <v>5001</v>
       </c>
       <c r="B81" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C81" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D81" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E81" t="s">
         <v>7</v>
@@ -4435,10 +4418,10 @@
         <v>49</v>
       </c>
       <c r="I81" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="J81" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
@@ -4446,13 +4429,13 @@
         <v>5001</v>
       </c>
       <c r="B82" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C82" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D82" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E82" t="s">
         <v>7</v>
@@ -4461,10 +4444,10 @@
         <v>50</v>
       </c>
       <c r="I82" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="J82" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
@@ -4472,13 +4455,13 @@
         <v>5001</v>
       </c>
       <c r="B83" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C83" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D83" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E83" t="s">
         <v>7</v>
@@ -4490,13 +4473,13 @@
         <v>67</v>
       </c>
       <c r="K83" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="L83" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="M83" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
@@ -4504,13 +4487,13 @@
         <v>5001</v>
       </c>
       <c r="B84" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C84" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D84" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E84" t="s">
         <v>7</v>
@@ -4522,10 +4505,10 @@
         <v>67</v>
       </c>
       <c r="K84" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="L84" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
@@ -4533,13 +4516,13 @@
         <v>5001</v>
       </c>
       <c r="B85" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C85" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D85" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E85" t="s">
         <v>7</v>
@@ -4551,13 +4534,13 @@
         <v>67</v>
       </c>
       <c r="K85" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="L85" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="M85" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
@@ -4565,13 +4548,13 @@
         <v>5001</v>
       </c>
       <c r="B86" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C86" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D86" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E86" t="s">
         <v>7</v>
@@ -4583,10 +4566,10 @@
         <v>67</v>
       </c>
       <c r="K86" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="L86" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
@@ -4594,13 +4577,13 @@
         <v>5001</v>
       </c>
       <c r="B87" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C87" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D87" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E87" t="s">
         <v>8</v>
@@ -4609,10 +4592,10 @@
         <v>52</v>
       </c>
       <c r="I87" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="J87" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
@@ -4620,13 +4603,13 @@
         <v>5001</v>
       </c>
       <c r="B88" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C88" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D88" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E88" t="s">
         <v>8</v>
@@ -4635,10 +4618,10 @@
         <v>53</v>
       </c>
       <c r="I88" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="J88" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
@@ -4646,13 +4629,13 @@
         <v>5001</v>
       </c>
       <c r="B89" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C89" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D89" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E89" t="s">
         <v>8</v>
@@ -4661,10 +4644,10 @@
         <v>54</v>
       </c>
       <c r="I89" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="J89" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
@@ -4672,25 +4655,25 @@
         <v>5001</v>
       </c>
       <c r="B90" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C90" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D90" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E90" t="s">
         <v>9</v>
       </c>
       <c r="F90" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="I90" t="s">
         <v>66</v>
       </c>
       <c r="J90" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
@@ -4698,13 +4681,13 @@
         <v>5001</v>
       </c>
       <c r="B91" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C91" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D91" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E91" t="s">
         <v>10</v>
@@ -4716,13 +4699,13 @@
         <v>67</v>
       </c>
       <c r="K91" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="L91" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="M91" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
@@ -4730,13 +4713,13 @@
         <v>5001</v>
       </c>
       <c r="B92" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C92" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D92" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E92" t="s">
         <v>10</v>
@@ -4748,10 +4731,10 @@
         <v>67</v>
       </c>
       <c r="K92" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="L92" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
@@ -4759,13 +4742,13 @@
         <v>5001</v>
       </c>
       <c r="B93" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C93" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D93" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E93" t="s">
         <v>10</v>
@@ -4777,13 +4760,13 @@
         <v>67</v>
       </c>
       <c r="K93" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="L93" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="M93" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
@@ -4791,13 +4774,13 @@
         <v>5001</v>
       </c>
       <c r="B94" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C94" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D94" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E94" t="s">
         <v>10</v>
@@ -4809,10 +4792,10 @@
         <v>67</v>
       </c>
       <c r="K94" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="L94" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
@@ -4820,13 +4803,13 @@
         <v>5001</v>
       </c>
       <c r="B95" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C95" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D95" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E95" t="s">
         <v>10</v>
@@ -4838,10 +4821,10 @@
         <v>67</v>
       </c>
       <c r="K95" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="L95" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
@@ -4849,13 +4832,13 @@
         <v>5001</v>
       </c>
       <c r="B96" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C96" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D96" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E96" t="s">
         <v>10</v>
@@ -4864,16 +4847,16 @@
         <v>56</v>
       </c>
       <c r="I96" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K96" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="L96" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="M96" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
@@ -4881,13 +4864,13 @@
         <v>5001</v>
       </c>
       <c r="B97" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C97" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D97" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E97" t="s">
         <v>10</v>
@@ -4896,16 +4879,16 @@
         <v>56</v>
       </c>
       <c r="I97" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K97" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="L97" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="M97" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
@@ -4913,13 +4896,13 @@
         <v>5001</v>
       </c>
       <c r="B98" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C98" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D98" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E98" t="s">
         <v>10</v>
@@ -4928,16 +4911,16 @@
         <v>56</v>
       </c>
       <c r="I98" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K98" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="L98" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="M98" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
@@ -4945,13 +4928,13 @@
         <v>5001</v>
       </c>
       <c r="B99" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C99" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D99" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E99" t="s">
         <v>10</v>
@@ -4960,13 +4943,13 @@
         <v>56</v>
       </c>
       <c r="I99" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K99" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="L99" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
@@ -4974,13 +4957,13 @@
         <v>5001</v>
       </c>
       <c r="B100" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C100" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D100" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E100" t="s">
         <v>10</v>
@@ -4989,7 +4972,7 @@
         <v>57</v>
       </c>
       <c r="I100" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
@@ -4997,13 +4980,13 @@
         <v>5001</v>
       </c>
       <c r="B101" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C101" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D101" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E101" t="s">
         <v>12</v>
@@ -5015,10 +4998,10 @@
         <v>67</v>
       </c>
       <c r="K101" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L101" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
@@ -5026,13 +5009,13 @@
         <v>5001</v>
       </c>
       <c r="B102" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C102" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D102" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E102" t="s">
         <v>12</v>
@@ -5044,13 +5027,13 @@
         <v>67</v>
       </c>
       <c r="K102" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="L102" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="M102" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
@@ -5058,13 +5041,13 @@
         <v>5001</v>
       </c>
       <c r="B103" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C103" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D103" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E103" t="s">
         <v>12</v>
@@ -5076,13 +5059,13 @@
         <v>67</v>
       </c>
       <c r="K103" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="L103" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="M103" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
@@ -5090,13 +5073,13 @@
         <v>5001</v>
       </c>
       <c r="B104" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C104" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D104" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E104" t="s">
         <v>12</v>
@@ -5108,10 +5091,10 @@
         <v>67</v>
       </c>
       <c r="K104" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L104" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
@@ -5119,13 +5102,13 @@
         <v>5001</v>
       </c>
       <c r="B105" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C105" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D105" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E105" t="s">
         <v>12</v>
@@ -5137,13 +5120,13 @@
         <v>67</v>
       </c>
       <c r="K105" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="L105" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="M105" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
@@ -5151,13 +5134,13 @@
         <v>5001</v>
       </c>
       <c r="B106" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C106" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D106" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E106" t="s">
         <v>12</v>
@@ -5169,10 +5152,10 @@
         <v>67</v>
       </c>
       <c r="K106" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="L106" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
@@ -5180,13 +5163,13 @@
         <v>5001</v>
       </c>
       <c r="B107" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C107" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D107" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E107" t="s">
         <v>12</v>
@@ -5198,10 +5181,10 @@
         <v>67</v>
       </c>
       <c r="K107" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L107" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
@@ -5209,13 +5192,13 @@
         <v>5001</v>
       </c>
       <c r="B108" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C108" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D108" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E108" t="s">
         <v>12</v>
@@ -5227,13 +5210,13 @@
         <v>67</v>
       </c>
       <c r="K108" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="L108" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="M108" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
@@ -5241,13 +5224,13 @@
         <v>5001</v>
       </c>
       <c r="B109" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C109" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D109" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E109" t="s">
         <v>12</v>
@@ -5259,10 +5242,10 @@
         <v>67</v>
       </c>
       <c r="K109" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="L109" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
@@ -5270,13 +5253,13 @@
         <v>5001</v>
       </c>
       <c r="B110" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C110" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D110" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E110" t="s">
         <v>15</v>
@@ -5288,13 +5271,13 @@
         <v>67</v>
       </c>
       <c r="K110" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="L110" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="M110" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
@@ -5302,13 +5285,13 @@
         <v>5001</v>
       </c>
       <c r="B111" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C111" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D111" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E111" t="s">
         <v>15</v>
@@ -5320,10 +5303,10 @@
         <v>67</v>
       </c>
       <c r="K111" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="L111" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
@@ -5331,13 +5314,13 @@
         <v>5001</v>
       </c>
       <c r="B112" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C112" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D112" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E112" t="s">
         <v>15</v>
@@ -5349,10 +5332,10 @@
         <v>67</v>
       </c>
       <c r="K112" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="L112" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
@@ -5360,13 +5343,13 @@
         <v>5001</v>
       </c>
       <c r="B113" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C113" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D113" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E113" t="s">
         <v>15</v>
@@ -5378,13 +5361,13 @@
         <v>67</v>
       </c>
       <c r="K113" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="L113" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="M113" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
@@ -5392,13 +5375,13 @@
         <v>5001</v>
       </c>
       <c r="B114" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C114" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D114" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E114" t="s">
         <v>15</v>
@@ -5407,10 +5390,10 @@
         <v>62</v>
       </c>
       <c r="I114" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="J114" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
@@ -5418,13 +5401,13 @@
         <v>5001</v>
       </c>
       <c r="B115" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C115" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D115" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E115" t="s">
         <v>15</v>
@@ -5433,16 +5416,16 @@
         <v>63</v>
       </c>
       <c r="I115" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K115" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="L115" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="M115" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
@@ -5450,13 +5433,13 @@
         <v>5001</v>
       </c>
       <c r="B116" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C116" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D116" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E116" t="s">
         <v>15</v>
@@ -5465,13 +5448,13 @@
         <v>63</v>
       </c>
       <c r="I116" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K116" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="L116" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
@@ -5479,13 +5462,13 @@
         <v>5001</v>
       </c>
       <c r="B117" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C117" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D117" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E117" t="s">
         <v>15</v>
@@ -5494,16 +5477,16 @@
         <v>63</v>
       </c>
       <c r="I117" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K117" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="L117" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="M117" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
@@ -5511,13 +5494,13 @@
         <v>5001</v>
       </c>
       <c r="B118" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C118" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D118" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E118" t="s">
         <v>15</v>
@@ -5526,16 +5509,16 @@
         <v>63</v>
       </c>
       <c r="I118" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K118" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="L118" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="M118" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -5546,9 +5529,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5574,10 +5559,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -5589,22 +5574,22 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>368</v>
+        <v>211</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -5612,7 +5597,13 @@
         <v>5001</v>
       </c>
       <c r="B2" t="s">
-        <v>370</v>
+        <v>364</v>
+      </c>
+      <c r="C2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D2" t="s">
+        <v>365</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -5620,8 +5611,11 @@
       <c r="F2" t="s">
         <v>68</v>
       </c>
+      <c r="G2" t="s">
+        <v>67</v>
+      </c>
       <c r="M2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -5629,7 +5623,13 @@
         <v>5001</v>
       </c>
       <c r="B3" t="s">
-        <v>370</v>
+        <v>364</v>
+      </c>
+      <c r="C3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D3" t="s">
+        <v>365</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -5637,13 +5637,22 @@
       <c r="F3" t="s">
         <v>69</v>
       </c>
+      <c r="G3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5001</v>
       </c>
       <c r="B4" t="s">
-        <v>370</v>
+        <v>364</v>
+      </c>
+      <c r="C4" t="s">
+        <v>364</v>
+      </c>
+      <c r="D4" t="s">
+        <v>365</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -5651,13 +5660,22 @@
       <c r="F4" t="s">
         <v>70</v>
       </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5001</v>
       </c>
       <c r="B5" t="s">
-        <v>370</v>
+        <v>364</v>
+      </c>
+      <c r="C5" t="s">
+        <v>364</v>
+      </c>
+      <c r="D5" t="s">
+        <v>365</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -5665,13 +5683,22 @@
       <c r="F5" t="s">
         <v>71</v>
       </c>
+      <c r="G5" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5001</v>
       </c>
       <c r="B6" t="s">
-        <v>370</v>
+        <v>364</v>
+      </c>
+      <c r="C6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D6" t="s">
+        <v>365</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -5679,19 +5706,34 @@
       <c r="F6" t="s">
         <v>23</v>
       </c>
+      <c r="G6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5001</v>
       </c>
       <c r="B7" t="s">
-        <v>370</v>
+        <v>364</v>
+      </c>
+      <c r="C7" t="s">
+        <v>364</v>
+      </c>
+      <c r="D7" t="s">
+        <v>365</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>72</v>
+      </c>
+      <c r="G7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -5699,13 +5741,22 @@
         <v>5001</v>
       </c>
       <c r="B8" t="s">
-        <v>370</v>
+        <v>364</v>
+      </c>
+      <c r="C8" t="s">
+        <v>364</v>
+      </c>
+      <c r="D8" t="s">
+        <v>365</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="G8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -5713,13 +5764,22 @@
         <v>5001</v>
       </c>
       <c r="B9" t="s">
-        <v>370</v>
+        <v>364</v>
+      </c>
+      <c r="C9" t="s">
+        <v>364</v>
+      </c>
+      <c r="D9" t="s">
+        <v>365</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="G9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -5727,13 +5787,22 @@
         <v>5001</v>
       </c>
       <c r="B10" t="s">
-        <v>370</v>
+        <v>364</v>
+      </c>
+      <c r="C10" t="s">
+        <v>364</v>
+      </c>
+      <c r="D10" t="s">
+        <v>365</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="G10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -5741,13 +5810,22 @@
         <v>5001</v>
       </c>
       <c r="B11" t="s">
-        <v>370</v>
+        <v>364</v>
+      </c>
+      <c r="C11" t="s">
+        <v>364</v>
+      </c>
+      <c r="D11" t="s">
+        <v>365</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="G11" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -5755,13 +5833,22 @@
         <v>5001</v>
       </c>
       <c r="B12" t="s">
-        <v>370</v>
+        <v>364</v>
+      </c>
+      <c r="C12" t="s">
+        <v>364</v>
+      </c>
+      <c r="D12" t="s">
+        <v>365</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="G12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -5769,13 +5856,22 @@
         <v>5001</v>
       </c>
       <c r="B13" t="s">
-        <v>370</v>
+        <v>364</v>
+      </c>
+      <c r="C13" t="s">
+        <v>364</v>
+      </c>
+      <c r="D13" t="s">
+        <v>365</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="G13" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -5783,13 +5879,22 @@
         <v>5001</v>
       </c>
       <c r="B14" t="s">
-        <v>370</v>
+        <v>364</v>
+      </c>
+      <c r="C14" t="s">
+        <v>364</v>
+      </c>
+      <c r="D14" t="s">
+        <v>365</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="G14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -5797,13 +5902,22 @@
         <v>5001</v>
       </c>
       <c r="B15" t="s">
+        <v>366</v>
+      </c>
+      <c r="C15" t="s">
+        <v>366</v>
+      </c>
+      <c r="D15" t="s">
+        <v>366</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" t="s">
         <v>370</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -5811,475 +5925,580 @@
         <v>5001</v>
       </c>
       <c r="B16" t="s">
+        <v>366</v>
+      </c>
+      <c r="C16" t="s">
+        <v>366</v>
+      </c>
+      <c r="D16" t="s">
+        <v>366</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>5001</v>
+      </c>
+      <c r="B17" t="s">
+        <v>366</v>
+      </c>
+      <c r="C17" t="s">
+        <v>366</v>
+      </c>
+      <c r="D17" t="s">
+        <v>366</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>5001</v>
+      </c>
+      <c r="B18" t="s">
+        <v>366</v>
+      </c>
+      <c r="C18" t="s">
+        <v>366</v>
+      </c>
+      <c r="D18" t="s">
+        <v>366</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>5001</v>
+      </c>
+      <c r="B19" t="s">
+        <v>366</v>
+      </c>
+      <c r="C19" t="s">
+        <v>366</v>
+      </c>
+      <c r="D19" t="s">
+        <v>366</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>5001</v>
+      </c>
+      <c r="B20" t="s">
+        <v>366</v>
+      </c>
+      <c r="C20" t="s">
+        <v>366</v>
+      </c>
+      <c r="D20" t="s">
+        <v>366</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>5001</v>
+      </c>
+      <c r="B21" t="s">
+        <v>366</v>
+      </c>
+      <c r="C21" t="s">
+        <v>366</v>
+      </c>
+      <c r="D21" t="s">
+        <v>366</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" t="s">
         <v>370</v>
       </c>
-      <c r="E16" t="s">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>5001</v>
+      </c>
+      <c r="B22" t="s">
+        <v>366</v>
+      </c>
+      <c r="C22" t="s">
+        <v>366</v>
+      </c>
+      <c r="D22" t="s">
+        <v>366</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>5001</v>
+      </c>
+      <c r="B23" t="s">
+        <v>366</v>
+      </c>
+      <c r="C23" t="s">
+        <v>366</v>
+      </c>
+      <c r="D23" t="s">
+        <v>366</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>5001</v>
+      </c>
+      <c r="B24" t="s">
+        <v>366</v>
+      </c>
+      <c r="C24" t="s">
+        <v>366</v>
+      </c>
+      <c r="D24" t="s">
+        <v>366</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>5001</v>
+      </c>
+      <c r="B25" t="s">
+        <v>366</v>
+      </c>
+      <c r="C25" t="s">
+        <v>366</v>
+      </c>
+      <c r="D25" t="s">
+        <v>366</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>5001</v>
+      </c>
+      <c r="B26" t="s">
+        <v>366</v>
+      </c>
+      <c r="C26" t="s">
+        <v>366</v>
+      </c>
+      <c r="D26" t="s">
+        <v>366</v>
+      </c>
+      <c r="E26" t="s">
         <v>15</v>
       </c>
-      <c r="F16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>5001</v>
-      </c>
-      <c r="B17" t="s">
-        <v>370</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>5001</v>
+      </c>
+      <c r="B27" t="s">
+        <v>366</v>
+      </c>
+      <c r="C27" t="s">
+        <v>366</v>
+      </c>
+      <c r="D27" t="s">
+        <v>366</v>
+      </c>
+      <c r="E27" t="s">
         <v>15</v>
       </c>
-      <c r="F17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>5001</v>
-      </c>
-      <c r="B18" t="s">
-        <v>371</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F27" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>5001</v>
+      </c>
+      <c r="B28" t="s">
+        <v>367</v>
+      </c>
+      <c r="C28" t="s">
+        <v>367</v>
+      </c>
+      <c r="D28" t="s">
+        <v>367</v>
+      </c>
+      <c r="E28" t="s">
         <v>7</v>
       </c>
-      <c r="F18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>5001</v>
-      </c>
-      <c r="B19" t="s">
-        <v>371</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F28" t="s">
+        <v>94</v>
+      </c>
+      <c r="G28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>5001</v>
+      </c>
+      <c r="B29" t="s">
+        <v>367</v>
+      </c>
+      <c r="C29" t="s">
+        <v>367</v>
+      </c>
+      <c r="D29" t="s">
+        <v>367</v>
+      </c>
+      <c r="E29" t="s">
         <v>7</v>
       </c>
-      <c r="F19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>5001</v>
-      </c>
-      <c r="B20" t="s">
-        <v>371</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="F29" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>5001</v>
+      </c>
+      <c r="B30" t="s">
+        <v>367</v>
+      </c>
+      <c r="C30" t="s">
+        <v>367</v>
+      </c>
+      <c r="D30" t="s">
+        <v>367</v>
+      </c>
+      <c r="E30" t="s">
         <v>8</v>
       </c>
-      <c r="F20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>5001</v>
-      </c>
-      <c r="B21" t="s">
-        <v>371</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F30" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>5001</v>
+      </c>
+      <c r="B31" t="s">
+        <v>367</v>
+      </c>
+      <c r="C31" t="s">
+        <v>367</v>
+      </c>
+      <c r="D31" t="s">
+        <v>367</v>
+      </c>
+      <c r="E31" t="s">
         <v>8</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F31" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>5001</v>
+      </c>
+      <c r="B32" t="s">
+        <v>367</v>
+      </c>
+      <c r="C32" t="s">
+        <v>367</v>
+      </c>
+      <c r="D32" t="s">
+        <v>367</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>5001</v>
-      </c>
-      <c r="B22" t="s">
-        <v>371</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>5001</v>
-      </c>
-      <c r="B23" t="s">
-        <v>371</v>
-      </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>5001</v>
-      </c>
-      <c r="B24" t="s">
-        <v>371</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="G32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>5001</v>
+      </c>
+      <c r="B33" t="s">
+        <v>367</v>
+      </c>
+      <c r="C33" t="s">
+        <v>367</v>
+      </c>
+      <c r="D33" t="s">
+        <v>367</v>
+      </c>
+      <c r="E33" t="s">
         <v>10</v>
       </c>
-      <c r="F24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>5001</v>
-      </c>
-      <c r="B25" t="s">
-        <v>371</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="F33" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>5001</v>
+      </c>
+      <c r="B34" t="s">
+        <v>367</v>
+      </c>
+      <c r="C34" t="s">
+        <v>367</v>
+      </c>
+      <c r="D34" t="s">
+        <v>367</v>
+      </c>
+      <c r="E34" t="s">
         <v>10</v>
       </c>
-      <c r="F25" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>5001</v>
-      </c>
-      <c r="B26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>5001</v>
-      </c>
-      <c r="B27" t="s">
-        <v>371</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="F34" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>5001</v>
+      </c>
+      <c r="B35" t="s">
+        <v>367</v>
+      </c>
+      <c r="C35" t="s">
+        <v>367</v>
+      </c>
+      <c r="D35" t="s">
+        <v>367</v>
+      </c>
+      <c r="E35" t="s">
         <v>12</v>
       </c>
-      <c r="F27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>5001</v>
-      </c>
-      <c r="B28" t="s">
-        <v>371</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="F35" t="s">
+        <v>100</v>
+      </c>
+      <c r="G35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>5001</v>
+      </c>
+      <c r="B36" t="s">
+        <v>367</v>
+      </c>
+      <c r="C36" t="s">
+        <v>367</v>
+      </c>
+      <c r="D36" t="s">
+        <v>367</v>
+      </c>
+      <c r="E36" t="s">
         <v>12</v>
       </c>
-      <c r="F28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>5001</v>
-      </c>
-      <c r="B29" t="s">
-        <v>371</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="F36" t="s">
+        <v>101</v>
+      </c>
+      <c r="G36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>5001</v>
+      </c>
+      <c r="B37" t="s">
+        <v>367</v>
+      </c>
+      <c r="C37" t="s">
+        <v>367</v>
+      </c>
+      <c r="D37" t="s">
+        <v>367</v>
+      </c>
+      <c r="E37" t="s">
         <v>13</v>
       </c>
-      <c r="F29" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>5001</v>
-      </c>
-      <c r="B30" t="s">
-        <v>371</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="F37" t="s">
+        <v>102</v>
+      </c>
+      <c r="G37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>5001</v>
+      </c>
+      <c r="B38" t="s">
+        <v>367</v>
+      </c>
+      <c r="C38" t="s">
+        <v>367</v>
+      </c>
+      <c r="D38" t="s">
+        <v>367</v>
+      </c>
+      <c r="E38" t="s">
         <v>13</v>
       </c>
-      <c r="F30" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>5001</v>
-      </c>
-      <c r="B31" t="s">
-        <v>371</v>
-      </c>
-      <c r="E31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>5001</v>
-      </c>
-      <c r="B32" t="s">
-        <v>371</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="F38" t="s">
+        <v>103</v>
+      </c>
+      <c r="G38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>5001</v>
+      </c>
+      <c r="B39" t="s">
+        <v>367</v>
+      </c>
+      <c r="C39" t="s">
+        <v>367</v>
+      </c>
+      <c r="D39" t="s">
+        <v>367</v>
+      </c>
+      <c r="E39" t="s">
         <v>15</v>
       </c>
-      <c r="F32" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>5001</v>
-      </c>
-      <c r="B33" t="s">
-        <v>371</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="F39" t="s">
+        <v>104</v>
+      </c>
+      <c r="G39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>5001</v>
+      </c>
+      <c r="B40" t="s">
+        <v>367</v>
+      </c>
+      <c r="C40" t="s">
+        <v>367</v>
+      </c>
+      <c r="D40" t="s">
+        <v>367</v>
+      </c>
+      <c r="E40" t="s">
         <v>15</v>
       </c>
-      <c r="F33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>5001</v>
-      </c>
-      <c r="B34" t="s">
-        <v>372</v>
-      </c>
-      <c r="E34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>5001</v>
-      </c>
-      <c r="B35" t="s">
-        <v>372</v>
-      </c>
-      <c r="E35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>5001</v>
-      </c>
-      <c r="B36" t="s">
-        <v>372</v>
-      </c>
-      <c r="E36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>5001</v>
-      </c>
-      <c r="B37" t="s">
-        <v>372</v>
-      </c>
-      <c r="E37" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>5001</v>
-      </c>
-      <c r="B38" t="s">
-        <v>372</v>
-      </c>
-      <c r="E38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>5001</v>
-      </c>
-      <c r="B39" t="s">
-        <v>372</v>
-      </c>
-      <c r="E39" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>5001</v>
-      </c>
-      <c r="B40" t="s">
-        <v>372</v>
-      </c>
-      <c r="E40" t="s">
-        <v>10</v>
-      </c>
       <c r="F40" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>5001</v>
-      </c>
-      <c r="B41" t="s">
-        <v>372</v>
-      </c>
-      <c r="E41" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>5001</v>
-      </c>
-      <c r="B42" t="s">
-        <v>372</v>
-      </c>
-      <c r="E42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>5001</v>
-      </c>
-      <c r="B43" t="s">
-        <v>372</v>
-      </c>
-      <c r="E43" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>5001</v>
-      </c>
-      <c r="B44" t="s">
-        <v>372</v>
-      </c>
-      <c r="E44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>5001</v>
-      </c>
-      <c r="B45" t="s">
-        <v>372</v>
-      </c>
-      <c r="E45" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>5001</v>
-      </c>
-      <c r="B46" t="s">
-        <v>372</v>
-      </c>
-      <c r="E46" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>5001</v>
-      </c>
-      <c r="B47" t="s">
-        <v>372</v>
-      </c>
-      <c r="E47" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>5001</v>
-      </c>
-      <c r="B48" t="s">
-        <v>372</v>
-      </c>
-      <c r="E48" t="s">
-        <v>15</v>
-      </c>
-      <c r="F48" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>5001</v>
-      </c>
-      <c r="B49" t="s">
-        <v>372</v>
-      </c>
-      <c r="E49" t="s">
-        <v>15</v>
-      </c>
-      <c r="F49" t="s">
-        <v>112</v>
+      <c r="G40" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -6319,10 +6538,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -6334,22 +6553,22 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>366</v>
+        <v>211</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -6357,16 +6576,16 @@
         <v>5001</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="M2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -6374,13 +6593,13 @@
         <v>5001</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -6388,13 +6607,13 @@
         <v>5001</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -6402,13 +6621,13 @@
         <v>5001</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -6416,13 +6635,13 @@
         <v>5001</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -6430,13 +6649,13 @@
         <v>5001</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -6444,13 +6663,13 @@
         <v>5001</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -6458,13 +6677,13 @@
         <v>5001</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -6472,13 +6691,13 @@
         <v>5001</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -6486,13 +6705,13 @@
         <v>5001</v>
       </c>
       <c r="B11" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -6500,13 +6719,13 @@
         <v>5001</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -6514,13 +6733,13 @@
         <v>5001</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -6528,13 +6747,13 @@
         <v>5001</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -6542,13 +6761,13 @@
         <v>5001</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -6556,13 +6775,13 @@
         <v>5001</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -6570,13 +6789,13 @@
         <v>5001</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -6584,13 +6803,13 @@
         <v>5001</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -6598,13 +6817,13 @@
         <v>5001</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -6612,13 +6831,13 @@
         <v>5001</v>
       </c>
       <c r="B20" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -6626,13 +6845,13 @@
         <v>5001</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -6640,13 +6859,13 @@
         <v>5001</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E22" t="s">
         <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -6654,13 +6873,13 @@
         <v>5001</v>
       </c>
       <c r="B23" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E23" t="s">
         <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -6668,13 +6887,13 @@
         <v>5001</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -6682,13 +6901,13 @@
         <v>5001</v>
       </c>
       <c r="B25" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E25" t="s">
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -6696,13 +6915,13 @@
         <v>5001</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -6710,13 +6929,13 @@
         <v>5001</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -6724,7 +6943,7 @@
         <v>5001</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -6735,13 +6954,13 @@
         <v>5001</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -6749,13 +6968,13 @@
         <v>5001</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -6763,13 +6982,13 @@
         <v>5001</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -6777,13 +6996,13 @@
         <v>5001</v>
       </c>
       <c r="B32" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -6791,13 +7010,13 @@
         <v>5001</v>
       </c>
       <c r="B33" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E33" t="s">
         <v>15</v>
       </c>
       <c r="F33" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -6805,13 +7024,13 @@
         <v>5001</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E34" t="s">
         <v>15</v>
       </c>
       <c r="F34" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -6852,10 +7071,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -6867,22 +7086,22 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>366</v>
+        <v>211</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -6890,16 +7109,16 @@
         <v>5001</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="M2" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -6907,13 +7126,13 @@
         <v>5001</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -6921,13 +7140,13 @@
         <v>5001</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -6935,13 +7154,13 @@
         <v>5001</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -6949,13 +7168,13 @@
         <v>5001</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -6963,13 +7182,13 @@
         <v>5001</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -6977,13 +7196,13 @@
         <v>5001</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -6991,13 +7210,13 @@
         <v>5001</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E9" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F9" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -7005,13 +7224,13 @@
         <v>5001</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E10" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F10" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -7019,13 +7238,13 @@
         <v>5001</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -7033,13 +7252,13 @@
         <v>5001</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -7047,13 +7266,13 @@
         <v>5001</v>
       </c>
       <c r="B13" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -7061,13 +7280,13 @@
         <v>5001</v>
       </c>
       <c r="B14" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E14" t="s">
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -7075,13 +7294,13 @@
         <v>5001</v>
       </c>
       <c r="B15" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -7089,13 +7308,13 @@
         <v>5001</v>
       </c>
       <c r="B16" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -7103,13 +7322,13 @@
         <v>5001</v>
       </c>
       <c r="B17" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -7117,13 +7336,13 @@
         <v>5001</v>
       </c>
       <c r="B18" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -7131,13 +7350,13 @@
         <v>5001</v>
       </c>
       <c r="B19" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -7145,13 +7364,13 @@
         <v>5001</v>
       </c>
       <c r="B20" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -7159,13 +7378,13 @@
         <v>5001</v>
       </c>
       <c r="B21" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -7173,13 +7392,13 @@
         <v>5001</v>
       </c>
       <c r="B22" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E22" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F22" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -7187,13 +7406,13 @@
         <v>5001</v>
       </c>
       <c r="B23" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E23" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F23" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -7201,13 +7420,13 @@
         <v>5001</v>
       </c>
       <c r="B24" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -7215,13 +7434,13 @@
         <v>5001</v>
       </c>
       <c r="B25" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -7229,13 +7448,13 @@
         <v>5001</v>
       </c>
       <c r="B26" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E26" t="s">
         <v>15</v>
       </c>
       <c r="F26" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -7243,13 +7462,13 @@
         <v>5001</v>
       </c>
       <c r="B27" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E27" t="s">
         <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -7257,13 +7476,13 @@
         <v>5001</v>
       </c>
       <c r="B28" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E28" t="s">
         <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -7271,13 +7490,13 @@
         <v>5001</v>
       </c>
       <c r="B29" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -7285,13 +7504,13 @@
         <v>5001</v>
       </c>
       <c r="B30" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -7299,13 +7518,13 @@
         <v>5001</v>
       </c>
       <c r="B31" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -7313,13 +7532,13 @@
         <v>5001</v>
       </c>
       <c r="B32" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -7327,13 +7546,13 @@
         <v>5001</v>
       </c>
       <c r="B33" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E33" t="s">
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -7341,13 +7560,13 @@
         <v>5001</v>
       </c>
       <c r="B34" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E34" t="s">
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -7355,13 +7574,13 @@
         <v>5001</v>
       </c>
       <c r="B35" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E35" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F35" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -7369,13 +7588,13 @@
         <v>5001</v>
       </c>
       <c r="B36" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E36" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F36" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -7383,13 +7602,13 @@
         <v>5001</v>
       </c>
       <c r="B37" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E37" t="s">
         <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -7397,13 +7616,13 @@
         <v>5001</v>
       </c>
       <c r="B38" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E38" t="s">
         <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -7411,13 +7630,13 @@
         <v>5001</v>
       </c>
       <c r="B39" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E39" t="s">
         <v>15</v>
       </c>
       <c r="F39" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -7425,13 +7644,13 @@
         <v>5001</v>
       </c>
       <c r="B40" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E40" t="s">
         <v>15</v>
       </c>
       <c r="F40" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
